--- a/Symfony4/public/temp/export/excel/Liste congrégations_2020.xlsx
+++ b/Symfony4/public/temp/export/excel/Liste congrégations_2020.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>N°</t>
   </si>
@@ -69,6 +69,24 @@
   </si>
   <si>
     <t>don.bosco@gmail.com</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Saint Michel</t>
+  </si>
+  <si>
+    <t>08/02/2020</t>
+  </si>
+  <si>
+    <t>Amparibe</t>
+  </si>
+  <si>
+    <t>0341011111</t>
+  </si>
+  <si>
+    <t>saint.michel@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -442,10 +460,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:F3"/>
+      <selection activeCell="A2" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -516,6 +534,26 @@
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
